--- a/output_data/График_работ_2026.xlsx
+++ b/output_data/График_работ_2026.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Декабрь_2026" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Ноябрь_2026" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Октябрь_2026" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Май_2026" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -597,7 +597,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>Вт</t>
@@ -753,11 +752,6 @@
           <t>Чт</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -782,12 +776,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Д2</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -797,27 +791,27 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -837,12 +831,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -852,7 +846,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д2</t>
         </is>
       </c>
       <c r="T3" s="4" t="inlineStr">
@@ -860,19 +854,19 @@
           <t>В</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="U3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -882,17 +876,17 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Д2</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="Z3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="AA3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="AB3" s="4" t="inlineStr">
@@ -902,7 +896,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -921,19 +915,19 @@
         </is>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
@@ -984,12 +978,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Д1</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -997,49 +991,49 @@
           <t>Д</t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Д1</t>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="S4" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="T4" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Д1</t>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1049,27 +1043,27 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="Z4" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AA4" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="AB4" s="4" t="inlineStr">
@@ -1084,7 +1078,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1094,23 +1088,23 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д2</t>
         </is>
       </c>
       <c r="AG4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>6</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>4</v>
       </c>
       <c r="AI4" t="n">
         <v>11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -1139,14 +1133,14 @@
           <t>Д</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Д1</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1206,12 +1200,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="T5" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="U5" s="4" t="inlineStr">
@@ -1256,17 +1250,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="AE5" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="AD5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1275,7 +1269,7 @@
         </is>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1284,10 +1278,10 @@
         <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
@@ -1313,12 +1307,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -1328,72 +1322,72 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="N6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="U6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1426,19 +1420,19 @@
           <t>В</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="AD6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="AC6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1448,23 +1442,23 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Д2</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7">
@@ -1510,12 +1504,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1545,12 +1539,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1560,37 +1554,37 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="V7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1598,19 +1592,19 @@
           <t>Д</t>
         </is>
       </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="AB7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1620,7 +1614,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1629,10 +1623,10 @@
         </is>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1670,30 +1664,16 @@
           <t>В</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Д1</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
           <t>Д1</t>
@@ -1701,7 +1681,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1711,7 +1691,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1719,9 +1699,9 @@
           <t>Д1</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Д1</t>
+      <c r="AA8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1731,17 +1711,17 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="AE8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1750,19 +1730,19 @@
         </is>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2086,17 +2066,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Д2</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
@@ -2106,22 +2086,22 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -2136,37 +2116,37 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -2176,27 +2156,27 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="Y3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="Z3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="AC3" s="4" t="inlineStr">
@@ -2204,14 +2184,14 @@
           <t>В</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="AE3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="AD3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Д2</t>
         </is>
       </c>
       <c r="AF3" t="n">
@@ -2221,13 +2201,13 @@
         <v>5</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
@@ -2293,7 +2273,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д2</t>
         </is>
       </c>
       <c r="O4" s="4" t="inlineStr">
@@ -2301,19 +2281,19 @@
           <t>В</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -2328,12 +2308,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Д1</t>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="V4" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -2343,12 +2323,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Д1</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="Y4" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -2358,12 +2338,12 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Д2</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="AC4" s="4" t="inlineStr">
@@ -2371,14 +2351,14 @@
           <t>В</t>
         </is>
       </c>
-      <c r="AD4" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Д2</t>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="AE4" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="AF4" t="n">
@@ -2388,13 +2368,13 @@
         <v>5</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
@@ -2440,12 +2420,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2465,12 +2445,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="O5" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Д2</t>
         </is>
       </c>
       <c r="P5" s="4" t="inlineStr">
@@ -2480,22 +2460,22 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="R5" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -2503,29 +2483,29 @@
           <t>Д</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -2535,12 +2515,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Д2</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="AC5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="AD5" s="4" t="inlineStr">
@@ -2550,23 +2530,23 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="AF5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ5" t="n">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
@@ -2610,14 +2590,14 @@
           <t>В</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Д1</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2627,12 +2607,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -2640,14 +2620,14 @@
           <t>Д</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -2657,22 +2637,22 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="S6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д2</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -2726,19 +2706,19 @@
         </is>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -2772,29 +2752,29 @@
           <t>Д1</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Д1</t>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д2</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="P7" s="4" t="inlineStr">
@@ -2804,12 +2784,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -2819,12 +2799,12 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -2834,12 +2814,12 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -2849,12 +2829,12 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2864,7 +2844,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д2</t>
         </is>
       </c>
       <c r="AD7" s="4" t="inlineStr">
@@ -2878,19 +2858,19 @@
         </is>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
@@ -2921,17 +2901,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Д2</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
@@ -2941,7 +2921,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2951,22 +2931,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Д2</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="P8" s="4" t="inlineStr">
@@ -2981,32 +2961,32 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Д1</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="S8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="W8" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="U8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="V8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -3016,27 +2996,27 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="Z8" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="AA8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="AC8" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="AD8" s="4" t="inlineStr">
@@ -3046,23 +3026,23 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="AF8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ8" t="n">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3210,161 +3190,167 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Пт</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Пнд</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Вт</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Чт</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Пт</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>Сб</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>Вс</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Пнд</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Вт</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Ср</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Чт</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Пт</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>Сб</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>Вс</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Пнд</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Вт</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Ср</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Чт</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Пт</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>Сб</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>Вс</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Пнд</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Вт</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Ср</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>Чт</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Пт</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="AE2" s="4" t="inlineStr">
         <is>
           <t>Сб</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="AF2" s="4" t="inlineStr">
         <is>
           <t>Вс</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Пнд</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>Вт</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Ср</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>Чт</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Пт</t>
-        </is>
-      </c>
-      <c r="AF2" s="4" t="inlineStr">
-        <is>
-          <t>Сб</t>
-        </is>
-      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3377,9 +3363,9 @@
           <t>Д1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Д</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -3399,12 +3385,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3412,34 +3398,34 @@
           <t>Д</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Д1</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -3447,9 +3433,9 @@
           <t>Д</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Д</t>
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -3457,24 +3443,24 @@
           <t>Д1</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="U3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -3484,7 +3470,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="Y3" s="4" t="inlineStr">
@@ -3494,12 +3480,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="AA3" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -3514,12 +3500,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="AE3" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="AF3" s="4" t="inlineStr">
@@ -3534,13 +3520,13 @@
         <v>5</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -3581,17 +3567,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Д2</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
@@ -3606,22 +3592,22 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -3634,24 +3620,24 @@
           <t>В</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="U4" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -3659,9 +3645,9 @@
           <t>Д</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Д</t>
+      <c r="X4" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -3674,20 +3660,50 @@
           <t>В</t>
         </is>
       </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="AF4" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>120</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -3696,9 +3712,9 @@
           <t>С3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Д</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3711,9 +3727,79 @@
           <t>В</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -3723,57 +3809,57 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Д1</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="Y5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="AB5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>Д2</t>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="AE5" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="AF5" s="4" t="inlineStr">
@@ -3782,19 +3868,19 @@
         </is>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
@@ -3803,9 +3889,9 @@
           <t>С4</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Д</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3818,19 +3904,19 @@
           <t>В</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3840,17 +3926,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Д2</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="L6" s="4" t="inlineStr">
@@ -3860,12 +3946,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -3875,27 +3961,27 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="R6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="T6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -3905,27 +3991,27 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="Y6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="Z6" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -3965,13 +4051,13 @@
         <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7">
@@ -3980,9 +4066,14 @@
           <t>С5</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Д</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3990,104 +4081,88 @@
           <t>Д1</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Д1</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Д1</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Д1</t>
-        </is>
-      </c>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д1</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="Y7" s="4" t="inlineStr">
@@ -4095,19 +4170,19 @@
           <t>В</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Д1</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Д</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -4120,9 +4195,9 @@
           <t>В</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>Д</t>
+      <c r="AE7" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -4131,19 +4206,19 @@
         </is>
       </c>
       <c r="AG7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH7" t="n">
         <v>5</v>
       </c>
-      <c r="AH7" t="n">
-        <v>6</v>
-      </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AK7" t="n">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
@@ -4152,14 +4227,14 @@
           <t>С6</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Д</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4174,12 +4249,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -4214,17 +4289,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Д2</t>
-        </is>
-      </c>
-      <c r="O8" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Д2</t>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="Q8" s="4" t="inlineStr">
@@ -4249,17 +4324,17 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Д</t>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="V8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Д2</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="X8" s="4" t="inlineStr">
@@ -4272,29 +4347,29 @@
           <t>В</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Д</t>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Д2</t>
+        </is>
+      </c>
+      <c r="AA8" s="4" t="inlineStr">
+        <is>
+          <t>В</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Д1</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Д1</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Д2</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="AE8" s="4" t="inlineStr">
@@ -4308,19 +4383,19 @@
         </is>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
         <v>7</v>
       </c>
-      <c r="AI8" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
